--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98729835-C1DF-426D-A5BE-DAAF5FC60600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A1472-326E-4D15-A953-9452A436B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="5715" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>Data serialization (XML)</t>
   </si>
   <si>
-    <t>Base library features</t>
+    <t xml:space="preserve">Lambda expression </t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A1472-326E-4D15-A953-9452A436B8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A603A-799C-4E81-A1E1-DB2DB17FC1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="2730" yWindow="2070" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Domm</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t xml:space="preserve">Lambda expression </t>
+  </si>
+  <si>
+    <t>Base library features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBMS revision </t>
   </si>
 </sst>
 </file>
@@ -105,12 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -474,7 +483,7 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>0.25</v>
       </c>
     </row>
@@ -484,8 +493,8 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
+      <c r="D5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,7 +505,7 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
     </row>
@@ -506,8 +515,28 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A603A-799C-4E81-A1E1-DB2DB17FC1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF9110-348D-4DA3-ACE3-3ED4C278D332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2070" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="405" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Domm</t>
   </si>
@@ -116,10 +116,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,12 +450,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -465,13 +465,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -483,7 +483,7 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -493,7 +493,7 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -505,7 +505,7 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -515,7 +515,7 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
     </row>
@@ -525,7 +525,7 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -535,7 +535,81 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
         <v>2.5</v>
       </c>
     </row>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BF9110-348D-4DA3-ACE3-3ED4C278D332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A149CA-D8A1-45D8-89A7-E07B1765951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="930" yWindow="3495" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Domm</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">DBMS revision </t>
+  </si>
+  <si>
+    <t>Extension methods</t>
+  </si>
+  <si>
+    <t>LINQ (with DataTable, List, etc.)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -557,60 +563,32 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A149CA-D8A1-45D8-89A7-E07B1765951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB22C9-E3CA-4BF7-B916-AC6C60A6A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3495" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="930" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Domm</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,6 +591,48 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB22C9-E3CA-4BF7-B916-AC6C60A6A08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2BB07-4BAD-4182-984C-6B788D746892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Domm</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>LINQ (with DataTable, List, etc.)</t>
+  </si>
+  <si>
+    <t>ORM tool</t>
+  </si>
+  <si>
+    <t>DBMS final demo revesion (for reconsile)</t>
   </si>
 </sst>
 </file>
@@ -442,16 +448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,17 +626,31 @@
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D20" s="4">
-        <v>5</v>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2BB07-4BAD-4182-984C-6B788D746892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63614483-E9F5-458C-9A65-29D9A6F88EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Domm</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>DBMS final demo revesion (for reconsile)</t>
+  </si>
+  <si>
+    <t>Project Videos</t>
+  </si>
+  <si>
+    <t>Security &amp; Cryptography</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +483,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45870</v>
+        <v>45665</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -553,7 +559,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45901</v>
+        <v>45666</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
@@ -599,7 +605,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45931</v>
+        <v>45667</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -651,6 +657,50 @@
       </c>
       <c r="D21" s="4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45670</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63614483-E9F5-458C-9A65-29D9A6F88EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9DA29-9FCC-4176-82C5-03D37AFFEB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Domm</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Security &amp; Cryptography</t>
+  </si>
+  <si>
+    <t>ORM tool Demo</t>
+  </si>
+  <si>
+    <t>Database with C# (CRUD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic type </t>
   </si>
 </sst>
 </file>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +712,60 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45671</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9DA29-9FCC-4176-82C5-03D37AFFEB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8D36F-C527-40FA-9EDF-342E59A0A47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D35" sqref="A30:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8D36F-C527-40FA-9EDF-342E59A0A47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4FFB79-3B55-460E-B2EE-D701BD319DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Domm</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic type </t>
+  </si>
+  <si>
+    <t>General Discussion</t>
+  </si>
+  <si>
+    <t>DataBase Overview query and other updates</t>
+  </si>
+  <si>
+    <t>Web Development Revision for Reconsile</t>
+  </si>
+  <si>
+    <t>Post-meeting Discussion</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D35" sqref="A30:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +778,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45673</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4FFB79-3B55-460E-B2EE-D701BD319DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27EA6C4-1FF4-4A84-8EC1-DAAA58AE72DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="1620" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Domm</t>
   </si>
@@ -93,7 +93,10 @@
     <t>Web Development Revision for Reconsile</t>
   </si>
   <si>
-    <t>Post-meeting Discussion</t>
+    <t xml:space="preserve"> Post-meeting Discussion</t>
+  </si>
+  <si>
+    <t>Advance C# final demo</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,44 +817,90 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45674</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27EA6C4-1FF4-4A84-8EC1-DAAA58AE72DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BABA923-6936-4F2A-9E16-37477B10D882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Domm</t>
   </si>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,8 +900,50 @@
         <v>23</v>
       </c>
       <c r="D47" s="4">
-        <v>4.5</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45677</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BABA923-6936-4F2A-9E16-37477B10D882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFE8DAD-38F0-4E14-B739-18082DEE48F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Domm</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>Advance C# final demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneaks </t>
+  </si>
+  <si>
+    <t>Demo of web development training</t>
+  </si>
+  <si>
+    <t>DBMS Revision for reconsile</t>
+  </si>
+  <si>
+    <t>Web development topics revision for reconsile</t>
   </si>
 </sst>
 </file>
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,6 +957,82 @@
       <c r="C52" s="3"/>
       <c r="D52" s="4"/>
     </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45678</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFE8DAD-38F0-4E14-B739-18082DEE48F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE37A1B-4B44-421A-9A0A-866C86392008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>Domm</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Advance C# final demo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sneaks </t>
-  </si>
-  <si>
     <t>Demo of web development training</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>Web development topics revision for reconsile</t>
+  </si>
+  <si>
+    <t>.Net Core Fundamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks </t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +988,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D56" s="4">
         <v>0.5</v>
@@ -1007,17 +1010,17 @@
         <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1027,11 +1030,53 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D60" s="4">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45679</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE37A1B-4B44-421A-9A0A-866C86392008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB69CAAA-A609-4806-BD66-8CA0ED7574D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>Domm</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t xml:space="preserve">Snacks </t>
+  </si>
+  <si>
+    <t>General Discussion(offline + online)</t>
+  </si>
+  <si>
+    <t>Debugging Revision for Reconsile</t>
+  </si>
+  <si>
+    <t>Middleware</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -177,6 +186,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D74" sqref="A67:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1091,88 @@
       <c r="C65" s="3"/>
       <c r="D65" s="4"/>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45680</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB69CAAA-A609-4806-BD66-8CA0ED7574D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBACA3C-09F3-4A3E-BFA1-5474E8753234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Domm</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Middleware</t>
+  </si>
+  <si>
+    <t>Reconcile Corrections</t>
+  </si>
+  <si>
+    <t>Routing</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -188,8 +194,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D74" sqref="A67:D74"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,12 +525,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1168,10 +1173,88 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45681</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBACA3C-09F3-4A3E-BFA1-5474E8753234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8B222-6057-428C-BD8E-A53690F3A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="3075" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D82" sqref="A75:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>31</v>
       </c>
       <c r="D79" s="4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="D80" s="4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA8B222-6057-428C-BD8E-A53690F3A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428BB8D-7457-42B5-858C-5F80E281B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>Domm</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Routing</t>
+  </si>
+  <si>
+    <t>Reconcile Revision</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Controller Initialization</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D82" sqref="A75:D82"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,10 +1260,82 @@
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="5"/>
+      <c r="A82" s="2">
+        <v>45684</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428BB8D-7457-42B5-858C-5F80E281B43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5923BE-B121-464D-9DD5-2C9410E63F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Domm</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Controller Initialization</t>
+  </si>
+  <si>
+    <t>Action Method</t>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,10 +1338,80 @@
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="5"/>
+      <c r="A89" s="2">
+        <v>45685</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5923BE-B121-464D-9DD5-2C9410E63F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD4C49-8A33-41AF-8C16-DF6B25BF4D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>Domm</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t>Light issue + Back account opening</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D104" sqref="A97:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,6 +1416,88 @@
         <v>3</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45686</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD4C49-8A33-41AF-8C16-DF6B25BF4D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C501F6E-8088-412B-8459-F417BD063924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>Domm</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Light issue + Back account opening</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D104" sqref="A97:D104"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,6 +1504,83 @@
       <c r="C104" s="3"/>
       <c r="D104" s="4"/>
     </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45687</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4">
+        <f>SUM(D104:D110)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C501F6E-8088-412B-8459-F417BD063924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F756594-34F3-4828-BB2C-82EF310C0543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Domm</t>
   </si>
@@ -151,6 +162,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Devextreme Discussion</t>
   </si>
 </sst>
 </file>
@@ -535,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:D112"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,6 +1595,99 @@
         <v>8</v>
       </c>
     </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4">
+        <f>SUM(D113:D120)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F756594-34F3-4828-BB2C-82EF310C0543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DBEB42-531D-475B-A372-FA14B8729A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="A112" sqref="A112:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DBEB42-531D-475B-A372-FA14B8729A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4A4E4C-7A95-4043-A7C4-56938170879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>Domm</t>
   </si>
@@ -165,6 +154,12 @@
   </si>
   <si>
     <t>Devextreme Discussion</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Logging in ASP.NET Core</t>
   </si>
 </sst>
 </file>
@@ -549,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:D121"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,6 +1683,99 @@
         <v>8</v>
       </c>
     </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45691</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4">
+        <f>SUM(D124:D131)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4A4E4C-7A95-4043-A7C4-56938170879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D7B85C-6975-4141-A3A2-63228163DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>Domm</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Logging in ASP.NET Core</t>
+  </si>
+  <si>
+    <t>ASP.NET Core Final Demo</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:D133"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D141" sqref="A136:D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,6 +1779,68 @@
         <v>8</v>
       </c>
     </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45692</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D140" s="4">
+        <f>SUM(D135:D139)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D7B85C-6975-4141-A3A2-63228163DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875340B6-07F2-4846-9F2A-2D729CBB28FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
   <si>
     <t>Domm</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>ASP.NET Core Final Demo</t>
+  </si>
+  <si>
+    <t>Reconsile Revision &amp; Changes</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -233,6 +236,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D141" sqref="A136:D141"/>
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,6 +1845,72 @@
         <v>8</v>
       </c>
     </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45693</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" s="4">
+        <f>SUM(D141:D146)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875340B6-07F2-4846-9F2A-2D729CBB28FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD4B1E6-DB67-43F9-811C-1974CBA532B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
   <si>
     <t>Domm</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Reconsile Revision &amp; Changes</t>
+  </si>
+  <si>
+    <t>Basics of Devextreme</t>
+  </si>
+  <si>
+    <t>Reconcile Changes</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -236,7 +242,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1899,7 @@
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D146" s="4">
@@ -1908,6 +1913,89 @@
       </c>
       <c r="D147" s="4">
         <f>SUM(D141:D146)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45694</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4">
+        <f>SUM(D150:D156)</f>
         <v>8</v>
       </c>
     </row>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD4B1E6-DB67-43F9-811C-1974CBA532B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C3B28-6194-4440-8BED-F691F41069A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>Domm</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Reconcile Changes</t>
+  </si>
+  <si>
+    <t>Editors – Overview</t>
   </si>
 </sst>
 </file>
@@ -556,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,6 +2002,73 @@
         <v>8</v>
       </c>
     </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45695</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4">
+        <f>SUM(D158:D163)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C3B28-6194-4440-8BED-F691F41069A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA8DAB3-56D8-4FB1-B115-DEC2FCA1F446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
   <si>
     <t>Domm</t>
   </si>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D171" sqref="A166:D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,6 +2069,63 @@
         <v>8</v>
       </c>
     </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45696</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="4">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="4">
+        <f>SUM(D165:D169)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA8DAB3-56D8-4FB1-B115-DEC2FCA1F446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C05CF0-96A6-4B8B-B4A5-0E7E5C06949C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="52">
   <si>
     <t>Domm</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Editors – Overview</t>
+  </si>
+  <si>
+    <t>Reconsile Revision</t>
+  </si>
+  <si>
+    <t>Overview: Data Layer &amp; Data Grid</t>
   </si>
 </sst>
 </file>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D171" sqref="A166:D171"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="U158" sqref="U158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,6 +2132,82 @@
         <v>8</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="C175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D178" s="4">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="4">
+        <f>SUM(D172:D178)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C05CF0-96A6-4B8B-B4A5-0E7E5C06949C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010C580E-1296-4905-9932-8F405AE969E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
   <si>
     <t>Domm</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Overview: Data Layer &amp; Data Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="U158" sqref="U158"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2178,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>4</v>
@@ -2187,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3" t="s">
@@ -2197,7 +2200,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>41</v>
@@ -2205,6 +2208,86 @@
       <c r="C179" s="3"/>
       <c r="D179" s="4">
         <f>SUM(D172:D178)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45699</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H182" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D186" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="4">
+        <f>SUM(D180:D186)</f>
         <v>8</v>
       </c>
     </row>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010C580E-1296-4905-9932-8F405AE969E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430E83F-8863-4208-BF17-42D31AAE24E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
   <si>
     <t>Domm</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Reconsile Revision &amp; changes</t>
+  </si>
+  <si>
+    <t>Editors – NumberBox, SelectBox</t>
   </si>
 </sst>
 </file>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D184" s="4">
         <v>1</v>
@@ -2288,6 +2294,73 @@
       <c r="C187" s="3"/>
       <c r="D187" s="4">
         <f>SUM(D180:D186)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45700</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D192" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="4">
+        <f>SUM(D188:D193)</f>
         <v>8</v>
       </c>
     </row>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430E83F-8863-4208-BF17-42D31AAE24E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD18F3A-D33F-4C2C-B0BB-3368FBFAC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="58">
   <si>
     <t>Domm</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Editors – NumberBox, SelectBox</t>
+  </si>
+  <si>
+    <t>Text Area</t>
+  </si>
+  <si>
+    <t>SelectBox - Search &amp; Editing, Grouped Items</t>
+  </si>
+  <si>
+    <t>Text Box</t>
   </si>
 </sst>
 </file>
@@ -574,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,6 +2373,83 @@
         <v>8</v>
       </c>
     </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>45701</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D199" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D200" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D201" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="4">
+        <f>SUM(D195:D201)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD18F3A-D33F-4C2C-B0BB-3368FBFAC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441DD44-F6A6-47FA-84DE-FD5B0D8D295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="59">
   <si>
     <t>Domm</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Text Box</t>
+  </si>
+  <si>
+    <t>Button</t>
   </si>
 </sst>
 </file>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="K185" sqref="K185"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,6 +2453,83 @@
         <v>8</v>
       </c>
     </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45702</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D207" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D209" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="4">
+        <f>SUM(D203:D209)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C441DD44-F6A6-47FA-84DE-FD5B0D8D295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED93268-A458-493C-A58C-3ABD0B540CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="62">
   <si>
     <t>Domm</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>FileUploader</t>
+  </si>
+  <si>
+    <t>Validation</t>
   </si>
 </sst>
 </file>
@@ -586,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,6 +2539,82 @@
         <v>8</v>
       </c>
     </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45705</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="C214" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D214" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D215" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D216" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D217" s="4">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="4">
+        <f>SUM(D211:D217)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED93268-A458-493C-A58C-3ABD0B540CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015E5795-6A65-45C6-A2A4-F0E125BE4A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1470" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="64">
   <si>
     <t>Domm</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>Validation</t>
+  </si>
+  <si>
+    <t>Radio Group</t>
+  </si>
+  <si>
+    <t>FinalDemo</t>
   </si>
 </sst>
 </file>
@@ -595,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="G216" sqref="G216"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,6 +2621,73 @@
         <v>8</v>
       </c>
     </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45706</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D223" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="4">
+        <f>SUM(D219:D224)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015E5795-6A65-45C6-A2A4-F0E125BE4A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923698CD-308A-44C7-BF4C-0BCFDB49339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="65">
   <si>
     <t>Domm</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>FinalDemo</t>
+  </si>
+  <si>
+    <t>Data Layer</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,6 +2691,73 @@
         <v>8</v>
       </c>
     </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45707</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D230" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D231" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="4">
+        <f>SUM(D226:D231)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923698CD-308A-44C7-BF4C-0BCFDB49339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B8950-264B-4988-AA07-47D9AF5B8C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="65">
   <si>
     <t>Domm</t>
   </si>
@@ -604,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="H232" sqref="H232"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="R234" sqref="R234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,6 +2758,63 @@
         <v>8</v>
       </c>
     </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D237" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="4">
+        <f>SUM(D233:D237)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B8950-264B-4988-AA07-47D9AF5B8C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934E419F-EC5A-4785-BC5C-F777536EBBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="675" yWindow="1470" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="68">
   <si>
     <t>Domm</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Data Layer</t>
+  </si>
+  <si>
+    <t>Data Binding</t>
+  </si>
+  <si>
+    <t>Paging and Scrolling</t>
+  </si>
+  <si>
+    <t>Editing</t>
   </si>
 </sst>
 </file>
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="R234" sqref="R234"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="D247" sqref="A240:D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,6 +2824,83 @@
         <v>8</v>
       </c>
     </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45709</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D244" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D245" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="4">
+        <f>SUM(D239:D245)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934E419F-EC5A-4785-BC5C-F777536EBBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E1C69-3557-453A-9831-41DC40E56E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1470" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="68">
   <si>
     <t>Domm</t>
   </si>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="D247" sqref="A240:D247"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="D254" sqref="A248:D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,6 +2901,73 @@
         <v>8</v>
       </c>
     </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D251" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D252" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4">
+        <f>SUM(D247:D252)</f>
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E1C69-3557-453A-9831-41DC40E56E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F78BE83-B60C-4C3B-A659-0267C435173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="70">
   <si>
     <t>Domm</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Editing</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Filtering</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="D254" sqref="A248:D254"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,6 +2974,83 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+      <c r="B256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D258" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D260" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="4">
+        <f>SUM(D254:D260)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934E419F-EC5A-4785-BC5C-F777536EBBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F78BE83-B60C-4C3B-A659-0267C435173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1470" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="70">
   <si>
     <t>Domm</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Editing</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Filtering</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="D247" sqref="A240:D247"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,6 +2907,150 @@
         <v>8</v>
       </c>
     </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45712</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D249" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D251" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D252" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="4">
+        <f>SUM(D247:D252)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+      <c r="B256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D258" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D260" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="4">
+        <f>SUM(D254:D260)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F78BE83-B60C-4C3B-A659-0267C435173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DAE8AD-9131-4B43-B1DF-C882EBD9F2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="73">
   <si>
     <t>Domm</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Filtering</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Columns</t>
   </si>
 </sst>
 </file>
@@ -619,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="L264" sqref="L264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,6 +3060,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>45714</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D264" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D266" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D267" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D268" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D269" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="4">
+        <f>SUM(D262:D269)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DAE8AD-9131-4B43-B1DF-C882EBD9F2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CBCFC6-DC4C-4624-85A0-0299619AD73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="74">
   <si>
     <t>Domm</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Columns</t>
+  </si>
+  <si>
+    <t>State Persistence</t>
   </si>
 </sst>
 </file>
@@ -628,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="L264" sqref="L264"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,6 +3150,83 @@
         <v>8</v>
       </c>
     </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>45715</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D275" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D276" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D277" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C278" s="3"/>
+      <c r="D278" s="4">
+        <f>SUM(D271:D277)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CBCFC6-DC4C-4624-85A0-0299619AD73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B0C21-3275-4CBB-B4B1-2A8D5FED0151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="76">
   <si>
     <t>Domm</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>State Persistence</t>
+  </si>
+  <si>
+    <t>Sr.Reconsile, Reconsile</t>
+  </si>
+  <si>
+    <t>Template</t>
   </si>
 </sst>
 </file>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="I276" sqref="I276"/>
+      <selection activeCell="H280" sqref="H280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,6 +3233,73 @@
         <v>8</v>
       </c>
     </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>45716</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D281" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D283" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D284" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="4">
+        <f>SUM(D279:D284)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B0C21-3275-4CBB-B4B1-2A8D5FED0151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B8683-A1ED-455C-AF5D-2FF038FC7714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="81">
   <si>
     <t>Domm</t>
   </si>
@@ -253,6 +253,21 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>Data Summaries</t>
+  </si>
+  <si>
+    <t>Master-Detail</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Adaptability</t>
+  </si>
+  <si>
+    <t>BirthDay celebration</t>
   </si>
 </sst>
 </file>
@@ -637,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="H280" sqref="H280"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,6 +3315,92 @@
         <v>8</v>
       </c>
     </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" s="3"/>
+      <c r="D287" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+      <c r="B288" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+      <c r="C289" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D289" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D290" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D291" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D292" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D293" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="4">
+        <f>SUM(D287:D293)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6B8683-A1ED-455C-AF5D-2FF038FC7714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3806A1-80C5-452A-993C-2242F2333887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="83">
   <si>
     <t>Domm</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>BirthDay celebration</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialogues  </t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="G303" sqref="G303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,6 +3407,83 @@
         <v>8</v>
       </c>
     </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>45720</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D297" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="3"/>
+      <c r="B299" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D299" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D300" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="3"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D301" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="3"/>
+      <c r="B302" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C302" s="3"/>
+      <c r="D302" s="4">
+        <f>SUM(D295:D301)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3806A1-80C5-452A-993C-2242F2333887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E4E1FC-03E0-4C77-BCB4-CAAEEB9671F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="85">
   <si>
     <t>Domm</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dialogues  </t>
+  </si>
+  <si>
+    <t>Dialogues &amp; Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataGrid final Demo </t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="G303" sqref="G303"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="I308" sqref="I308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,6 +3490,73 @@
         <v>8</v>
       </c>
     </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>45721</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" s="3"/>
+      <c r="D304" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+      <c r="B307" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D307" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D308" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" s="4">
+        <f>SUM(D303:D308)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E4E1FC-03E0-4C77-BCB4-CAAEEB9671F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156BC93-7594-43A3-9615-78BB0A146A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="I308" sqref="I308"/>
+      <selection activeCell="N290" sqref="N290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156BC93-7594-43A3-9615-78BB0A146A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF946A2-F9EA-4D76-B512-53B4D49E78AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="85">
   <si>
     <t>Domm</t>
   </si>
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="N290" sqref="N290"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="D317" sqref="A311:D317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,6 +3557,73 @@
         <v>8</v>
       </c>
     </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>45722</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" t="s">
+        <v>1</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D312" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D313" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="3"/>
+      <c r="B314" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D314" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D315" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="3"/>
+      <c r="B316" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="4">
+        <f>SUM(D310:D315)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF946A2-F9EA-4D76-B512-53B4D49E78AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E658F1-DCDD-4CEB-91A4-21109FFFFE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="87">
   <si>
     <t>Domm</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t xml:space="preserve">DataGrid final Demo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevExtreme final Demo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
   </si>
 </sst>
 </file>
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="D317" sqref="A311:D317"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="D326" sqref="A324:D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,6 +3630,110 @@
         <v>8</v>
       </c>
     </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>45723</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+      <c r="B319" t="s">
+        <v>1</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D319" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="3"/>
+      <c r="B321" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D321" s="4">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+      <c r="B322" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="4">
+        <f>SUM(D317:D321)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>45724</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" s="3"/>
+      <c r="D324" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+      <c r="B325" t="s">
+        <v>1</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D325" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D326" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C327" s="3"/>
+      <c r="D327" s="4">
+        <f>SUM(D323:D326)</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E658F1-DCDD-4CEB-91A4-21109FFFFE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744110A5-7A8D-47C0-93B1-CDD062E78985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="88">
   <si>
     <t>Domm</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t xml:space="preserve">Documentation </t>
+  </si>
+  <si>
+    <t>Mticket SS for Project</t>
   </si>
 </sst>
 </file>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H327"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="D326" sqref="A324:D326"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,6 +3737,62 @@
         <v>7</v>
       </c>
     </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>45726</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" s="3"/>
+      <c r="D329" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D330" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+      <c r="C331" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D331" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D332" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C333" s="3"/>
+      <c r="D333" s="4">
+        <f>SUM(D328:D332)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744110A5-7A8D-47C0-93B1-CDD062E78985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0458A-AE4F-4381-A006-7D2455BD4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
   <si>
     <t>Domm</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>Mticket SS for Project</t>
+  </si>
+  <si>
+    <t>Operational Training + Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Training Practice </t>
   </si>
 </sst>
 </file>
@@ -673,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="D353" sqref="A345:D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3749,7 +3761,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" t="s">
         <v>1</v>
@@ -3790,6 +3802,173 @@
       <c r="C333" s="3"/>
       <c r="D333" s="4">
         <f>SUM(D328:D332)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>45727</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" s="3"/>
+      <c r="D336" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="C338" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D338" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+      <c r="C339" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D339" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D340" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D341" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D342" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="3"/>
+      <c r="B343" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C343" s="3"/>
+      <c r="D343" s="4">
+        <f>SUM(D335:D342)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>45728</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" s="3"/>
+      <c r="D345" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>1</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D346" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+      <c r="C347" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D347" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+      <c r="C348" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D348" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+      <c r="C349" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D349" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="3"/>
+      <c r="B350" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D350" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D351" s="4">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C352" s="3"/>
+      <c r="D352" s="4">
+        <f>SUM(D344:D351)</f>
         <v>8</v>
       </c>
     </row>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0458A-AE4F-4381-A006-7D2455BD4F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5C800-78A5-4092-9472-EAE78CD6D6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
   <si>
     <t>Domm</t>
   </si>
@@ -301,6 +301,24 @@
   </si>
   <si>
     <t xml:space="preserve">Operational Training Practice </t>
+  </si>
+  <si>
+    <t>Operational Training Reconsile</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM API Training + Discussion </t>
+  </si>
+  <si>
+    <t>Read React Documentation</t>
+  </si>
+  <si>
+    <t>DevExtreme Project changes</t>
+  </si>
+  <si>
+    <t>DevExtreme Documentation</t>
   </si>
 </sst>
 </file>
@@ -685,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H352"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="D353" sqref="A345:D353"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="D369" sqref="A362:D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,6 +3990,156 @@
         <v>8</v>
       </c>
     </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>45729</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" s="3"/>
+      <c r="D354" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>1</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D355" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+      <c r="C356" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D356" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D357" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D358" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D359" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="3"/>
+      <c r="B360" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C360" s="3"/>
+      <c r="D360" s="4">
+        <f>SUM(D353:D359)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" s="3"/>
+      <c r="D362" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D363" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+      <c r="C364" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D364" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+      <c r="B365" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D365" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D366" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D367" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+      <c r="B368" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C368" s="3"/>
+      <c r="D368" s="4">
+        <f>SUM(D361:D367)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5C800-78A5-4092-9472-EAE78CD6D6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3EAE0-41D1-488C-AA8A-23665CEF090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="100">
   <si>
     <t>Domm</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>DevExtreme Documentation</t>
+  </si>
+  <si>
+    <t>Sr Reconsile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconsile revision </t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="D369" sqref="A362:D369"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="D376" sqref="A370:D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4140,6 +4146,71 @@
         <v>8</v>
       </c>
     </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" s="3"/>
+      <c r="D370" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D371" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="2"/>
+      <c r="C372" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D372" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="3"/>
+      <c r="B373" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D373" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="3"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D374" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="3"/>
+      <c r="B375" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C375" s="3"/>
+      <c r="D375" s="4">
+        <f>SUM(D369:D374)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/DailyWorkReport.xlsx
+++ b/DailyWorkReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hina.j\source\repos\RKIT_Internship_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3EAE0-41D1-488C-AA8A-23665CEF090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B134D3-00AD-4907-9EEF-6F95CAF027E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21615" windowHeight="14130" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D08360DC-A95C-4AA3-9766-44BAE5CA1820}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="102">
   <si>
     <t>Domm</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t xml:space="preserve">Reconsile revision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Documentation read </t>
+  </si>
+  <si>
+    <t>AutoDB training video</t>
   </si>
 </sst>
 </file>
@@ -709,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFBBF5-4962-479C-A8E1-4B1FB2501AF1}">
-  <dimension ref="A1:H375"/>
+  <dimension ref="A1:H390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="D376" sqref="A370:D376"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="D391" sqref="A384:D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,6 +4217,81 @@
         <v>8</v>
       </c>
     </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>45738</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" s="3"/>
+      <c r="D384" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>1</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D385" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="2"/>
+      <c r="C386" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D386" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="3"/>
+      <c r="B387" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D387" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D388" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="3"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D389" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="3"/>
+      <c r="B390" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C390" s="3"/>
+      <c r="D390" s="4">
+        <f>SUM(D383:D389)</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
